--- a/results.xlsx
+++ b/results.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alec-\Documents\GitHub\Airline-Planning-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D270270-3E70-4DD6-B01B-B4CFA38249C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -70,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,14 +135,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -195,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,27 +213,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,24 +247,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,16 +422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -551,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="1">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I2" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1">
         <v>318</v>
@@ -578,7 +526,7 @@
         <v>120</v>
       </c>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R2" s="1">
         <v>277</v>
@@ -596,7 +544,7 @@
         <v>204</v>
       </c>
       <c r="W2" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X2" s="1">
         <v>354</v>
@@ -608,7 +556,7 @@
         <v>207</v>
       </c>
       <c r="AA2" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB2" s="1">
         <v>205</v>
@@ -620,10 +568,10 @@
         <v>203</v>
       </c>
       <c r="AE2" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -646,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -670,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="3">
         <v>0</v>
@@ -688,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X3" s="3">
         <v>0</v>
@@ -712,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="B4" s="4">
         <v>0</v>
       </c>
@@ -723,31 +671,31 @@
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>0.99258566619987731</v>
+        <v>0.9925856661998773</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>0.99695057118624175</v>
+        <v>0.9969505711862418</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>0.99988163122281748</v>
+        <v>0.989573573168974</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>0.99868446234229569</v>
+        <v>0.9986844623422957</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>0.98775774335974009</v>
+        <v>0.9877577433597401</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -759,55 +707,55 @@
         <v>0</v>
       </c>
       <c r="P4" s="4">
-        <v>0.99492274389279678</v>
+        <v>0.9949227438927968</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" s="4">
-        <v>0.99820033233183036</v>
+        <v>0.9982003323318304</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" s="4">
-        <v>0.99980779242967044</v>
+        <v>0.9998077924296704</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" s="4">
-        <v>0.99744247837865541</v>
+        <v>0.9974424783786554</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" s="4">
-        <v>0.99810105339584521</v>
+        <v>0.9981010533958452</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4" s="4">
-        <v>0.99659946841668234</v>
+        <v>0.9965994684166823</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4" s="4">
-        <v>0.99686417696958374</v>
+        <v>0.9968641769695837</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4" s="4">
-        <v>0.99605350825810868</v>
+        <v>0.9960535082581087</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -824,22 +772,22 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -878,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="2">
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="2">
         <v>0</v>
@@ -902,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="B6" s="3">
         <v>0</v>
       </c>
@@ -916,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -925,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -970,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="X6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -979,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="3">
         <v>0</v>
@@ -994,9 +942,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="B7" s="4">
-        <v>0.99258566619987731</v>
+        <v>0.9925856661998773</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1008,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>0.01499129869789667</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>0.96493038922234275</v>
+        <v>0.9304685896072591</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>0.96591373184870577</v>
+        <v>0.9314168128541092</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1050,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="4">
-        <v>0.86678568138562562</v>
+        <v>0.8667856813856256</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1062,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="X7" s="4">
-        <v>2.0847692321331119E-2</v>
+        <v>0.01042384616066556</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.98768815183379166</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7" s="4">
-        <v>0.99895685736060846</v>
+        <v>0.9989568573606085</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1086,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1097,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1133,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="1">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1181,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="B9" s="3">
         <v>0</v>
       </c>
@@ -1189,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1225,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -1273,15 +1221,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="B10" s="4">
-        <v>0.99695057118624175</v>
+        <v>0.9969505711862418</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>0.01499129869789667</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1293,93 +1241,93 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>0.98604189360955141</v>
+        <v>0.9860418936095514</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" s="4">
-        <v>0.95082472389061412</v>
+        <v>0.9508247238906141</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>0.99553274527336622</v>
+        <v>0.9955327452733662</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" s="4">
-        <v>0.91858544194656844</v>
+        <v>0.9185854419465684</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" s="4">
-        <v>0.85457601124450955</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" s="4">
-        <v>0.71989524548608474</v>
+        <v>0.7198952454860847</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10" s="4">
-        <v>0.99843720594849894</v>
+        <v>0.9984372059484989</v>
       </c>
       <c r="U10">
         <v>1</v>
       </c>
       <c r="V10" s="4">
-        <v>0.92697226098952945</v>
+        <v>0.9269722609895295</v>
       </c>
       <c r="W10">
         <v>1</v>
       </c>
       <c r="X10" s="4">
-        <v>0.94509781949919636</v>
+        <v>0.9450978194991964</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10" s="4">
-        <v>0.87979440793152519</v>
+        <v>0.8797944079315252</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" s="4">
-        <v>0.99839193036799245</v>
+        <v>0.9983919303679925</v>
       </c>
       <c r="AC10">
         <v>1</v>
       </c>
       <c r="AD10" s="4">
-        <v>0.83017332841198255</v>
+        <v>0.8301733284119825</v>
       </c>
       <c r="AE10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <v>176</v>
@@ -1448,30 +1396,30 @@
         <v>1</v>
       </c>
       <c r="AB11" s="1">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AC11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD11" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="B12" s="3">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1543,30 +1491,30 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="B13" s="4">
-        <v>0.99988163122281748</v>
+        <v>0.989573573168974</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>0.96493038922234275</v>
+        <v>0.9304685896072591</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <v>0.98604189360955141</v>
+        <v>0.9860418936095514</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1578,73 +1526,73 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>0.91248211367582932</v>
+        <v>0.9124821136758293</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>0.83068925931034032</v>
+        <v>0.8306892593103403</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13" s="4">
-        <v>0.97541072121042338</v>
+        <v>0.9754107212104234</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" s="4">
-        <v>0.58600162311888171</v>
+        <v>0.5860016231188817</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" s="4">
-        <v>0.98465236045490845</v>
+        <v>0.9846523604549084</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13" s="4">
-        <v>0.93747617256563998</v>
+        <v>0.93747617256564</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" s="4">
-        <v>0.99795908845799641</v>
+        <v>0.9979590884579964</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" s="4">
-        <v>0.95092215574627148</v>
+        <v>0.9509221557462715</v>
       </c>
       <c r="Y13">
         <v>2</v>
       </c>
       <c r="Z13" s="4">
-        <v>0.99349030004545602</v>
+        <v>0.993490300045456</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
       <c r="AB13" s="4">
-        <v>0.9412196693441407</v>
+        <v>0.8470977024097266</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13" s="4">
-        <v>0.72265916095991145</v>
+        <v>0.7166867711999122</v>
       </c>
       <c r="AE13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1655,10 +1603,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1">
         <v>168</v>
@@ -1679,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -1739,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="B15" s="3">
         <v>0</v>
       </c>
@@ -1750,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1774,13 +1722,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>6</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1831,27 +1779,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="B16" s="4">
-        <v>0.99868446234229569</v>
+        <v>0.9986844623422957</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>0.96591373184870577</v>
+        <v>0.9314168128541092</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <v>0.95082472389061412</v>
+        <v>0.9508247238906141</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>0.91248211367582932</v>
+        <v>0.9124821136758293</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1863,55 +1811,55 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>0.75729478946410822</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>0.50285661474523868</v>
+        <v>0.04866354336244245</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" s="4">
-        <v>0.88643086353704992</v>
+        <v>0.8864308635370499</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" s="4">
-        <v>0.91292312832944678</v>
+        <v>0.9129231283294468</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" s="4">
-        <v>0.92340959432235648</v>
+        <v>0.9234095943223565</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" s="4">
-        <v>0.95420915832950792</v>
+        <v>0.9542091583295079</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" s="4">
-        <v>0.99877188995432764</v>
+        <v>0.9987718899543276</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16" s="4">
-        <v>0.89149251825174347</v>
+        <v>0.8914925182517435</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16" s="4">
-        <v>0.94634431416977083</v>
+        <v>0.9463443141697708</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -1923,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1952,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -1964,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="O17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" s="1">
         <v>56</v>
@@ -1982,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -1994,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Y17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z17" s="1">
         <v>56</v>
@@ -2018,7 +1966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="B18" s="3">
         <v>0</v>
       </c>
@@ -2047,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -2059,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -2077,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
@@ -2089,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
         <v>0</v>
@@ -2110,9 +2058,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="B19" s="4">
-        <v>0.98775774335974009</v>
+        <v>0.9877577433597401</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2124,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <v>0.99553274527336622</v>
+        <v>0.9955327452733662</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="4">
-        <v>0.83068925931034032</v>
+        <v>0.8306892593103403</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>0.75729478946410822</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2148,25 +2096,25 @@
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <v>0.92355687520902452</v>
+        <v>0.7227836414679323</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" s="4">
-        <v>0.88098923017032804</v>
+        <v>0.880989230170328</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19" s="4">
-        <v>0.86726351334896112</v>
+        <v>0.8672635133489611</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19" s="4">
-        <v>0.59840835049462759</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2178,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="X19" s="4">
-        <v>0.91226493473589143</v>
+        <v>0.9957038007178327</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19" s="4">
-        <v>0.61294126390320314</v>
+        <v>0.6129412639032031</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -2196,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="AD19" s="4">
-        <v>0.92491367314937634</v>
+        <v>0.9249136731493763</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2231,16 +2179,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -2255,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S20" s="2">
         <v>0</v>
@@ -2285,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC20" s="2">
         <v>0</v>
@@ -2297,7 +2245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="B21" s="3">
         <v>0</v>
       </c>
@@ -2326,13 +2274,13 @@
         <v>6</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -2347,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2377,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="AB21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2389,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="B22" s="4">
         <v>0.9955388053131321</v>
       </c>
@@ -2403,25 +2351,25 @@
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <v>0.91858544194656844</v>
+        <v>0.9185854419465684</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>0.97541072121042338</v>
+        <v>0.9754107212104234</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>0.50285661474523868</v>
+        <v>0.04866354336244245</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>0.92355687520902452</v>
+        <v>0.7227836414679323</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2439,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <v>3.4353642307815117E-2</v>
+        <v>0.02576523173086134</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22" s="4">
-        <v>0.69590202414457702</v>
+        <v>0.695902024144577</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2457,31 +2405,31 @@
         <v>0</v>
       </c>
       <c r="X22" s="4">
-        <v>0.91260390440682482</v>
+        <v>0.9126039044068248</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22" s="4">
-        <v>0.70187640411694907</v>
+        <v>0.7018764041169491</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22" s="4">
-        <v>4.6781537304818592E-2</v>
+        <v>0.05847692163102324</v>
       </c>
       <c r="AC22">
         <v>0</v>
       </c>
       <c r="AD22" s="4">
-        <v>0.81892560972387152</v>
+        <v>0.8189256097238715</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2489,7 +2437,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -2498,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -2534,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -2546,19 +2494,19 @@
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="W23" s="2">
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Y23" s="2">
         <v>1</v>
       </c>
       <c r="Z23" s="1">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AA23" s="2">
         <v>0</v>
@@ -2570,18 +2518,18 @@
         <v>0</v>
       </c>
       <c r="AD23" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="B24" s="3">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -2590,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -2626,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -2638,22 +2586,22 @@
         <v>1</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>1</v>
       </c>
       <c r="Z24" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
@@ -2665,12 +2613,12 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="B25" s="4">
-        <v>0.99492274389279678</v>
+        <v>0.9949227438927968</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2682,25 +2630,25 @@
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <v>0.85457601124450955</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <v>0.58600162311888171</v>
+        <v>0.5860016231188817</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <v>0.88643086353704992</v>
+        <v>0.8864308635370499</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>0.88098923017032804</v>
+        <v>0.880989230170328</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2718,49 +2666,49 @@
         <v>0</v>
       </c>
       <c r="R25" s="4">
-        <v>0.59654593212517715</v>
+        <v>0.6071985380559839</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25" s="4">
-        <v>0.98725640728197839</v>
+        <v>0.9872564072819784</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25" s="4">
-        <v>0.84010284246914968</v>
+        <v>0.1800220376719606</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25" s="4">
-        <v>0.93352966493661993</v>
+        <v>0.9040497807807267</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25" s="4">
-        <v>0.98736544834976547</v>
+        <v>0.7581556121257128</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25" s="4">
-        <v>0.75597085193513813</v>
+        <v>0.7559708519351381</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25" s="4">
-        <v>0.8051622493965761</v>
+        <v>0</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2801,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
@@ -2819,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="U26" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V26" s="1">
         <v>216</v>
@@ -2849,13 +2797,13 @@
         <v>6</v>
       </c>
       <c r="AD26" s="1">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AE26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2893,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2914,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
@@ -2941,15 +2889,15 @@
         <v>0</v>
       </c>
       <c r="AD27" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31">
       <c r="B28" s="4">
-        <v>0.99820033233183036</v>
+        <v>0.9982003323318304</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2961,37 +2909,37 @@
         <v>0</v>
       </c>
       <c r="F28" s="4">
-        <v>0.71989524548608474</v>
+        <v>0.7198952454860847</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>0.98465236045490845</v>
+        <v>0.9846523604549084</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>0.91292312832944678</v>
+        <v>0.9129231283294468</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>0.86726351334896112</v>
+        <v>0.8672635133489611</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28" s="4">
-        <v>0</v>
+        <v>0.03435364230781512</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <v>0.59654593212517715</v>
+        <v>0.5965459321251771</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3003,43 +2951,43 @@
         <v>0</v>
       </c>
       <c r="T28" s="4">
-        <v>0.9424757911745546</v>
+        <v>0.8275397190800967</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28" s="4">
-        <v>0.95381605637746714</v>
+        <v>0.9538160563774671</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28" s="4">
-        <v>0.99858333613548333</v>
+        <v>0.9985833361354833</v>
       </c>
       <c r="Y28">
         <v>2</v>
       </c>
       <c r="Z28" s="4">
-        <v>0.82309135130838162</v>
+        <v>0.8230913513083816</v>
       </c>
       <c r="AA28">
         <v>1</v>
       </c>
       <c r="AB28" s="4">
-        <v>0.94577655370267133</v>
+        <v>0.9457765537026713</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28" s="4">
-        <v>0.82100063025900638</v>
+        <v>0.7959319087243802</v>
       </c>
       <c r="AE28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3074,7 +3022,7 @@
         <v>5</v>
       </c>
       <c r="L29" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -3092,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="S29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T29" s="1">
         <v>0</v>
@@ -3110,10 +3058,10 @@
         <v>3</v>
       </c>
       <c r="X29" s="1">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="Y29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z29" s="1">
         <v>108</v>
@@ -3128,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="AE29" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="B30" s="3">
         <v>0</v>
       </c>
@@ -3169,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="3">
         <v>0</v>
@@ -3187,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="3">
         <v>0</v>
@@ -3205,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="3">
         <v>0</v>
@@ -3223,60 +3171,60 @@
         <v>6</v>
       </c>
       <c r="AE30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31">
       <c r="B31" s="4">
-        <v>0.99980779242967044</v>
+        <v>0.9998077924296704</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>0.86678568138562562</v>
+        <v>0.8667856813856256</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" s="4">
-        <v>0.99843720594849894</v>
+        <v>0.9984372059484989</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" s="4">
-        <v>0.93747617256563998</v>
+        <v>0.93747617256564</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" s="4">
-        <v>0.92340959432235648</v>
+        <v>0.9234095943223565</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>0.59840835049462759</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31" s="4">
-        <v>0.69590202414457702</v>
+        <v>0.695902024144577</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31" s="4">
-        <v>0.98725640728197839</v>
+        <v>0.9872564072819784</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" s="4">
-        <v>0.9424757911745546</v>
+        <v>0.8275397190800967</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3288,37 +3236,37 @@
         <v>0</v>
       </c>
       <c r="V31" s="4">
-        <v>0.79516916154143946</v>
+        <v>0.7951691615414395</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31" s="4">
-        <v>0.94177623906653563</v>
+        <v>0.8269254782047629</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31" s="4">
-        <v>0.89637739293693419</v>
+        <v>0.8963773929369342</v>
       </c>
       <c r="AA31">
         <v>0</v>
       </c>
       <c r="AB31" s="4">
-        <v>0.99249823855112596</v>
+        <v>0.992498238551126</v>
       </c>
       <c r="AC31">
         <v>1</v>
       </c>
       <c r="AD31" s="4">
-        <v>0.57431504180140358</v>
+        <v>0.05557887501303906</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -3326,7 +3274,7 @@
         <v>204</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1">
         <v>56</v>
@@ -3365,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -3413,12 +3361,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31">
       <c r="B33" s="3">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -3457,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -3505,9 +3453,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="B34" s="4">
-        <v>0.99744247837865541</v>
+        <v>0.9974424783786554</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3519,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>0.92697226098952945</v>
+        <v>0.9269722609895295</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" s="4">
-        <v>0.99795908845799641</v>
+        <v>0.9979590884579964</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" s="4">
-        <v>0.95420915832950792</v>
+        <v>0.9542091583295079</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3549,19 +3497,19 @@
         <v>0</v>
       </c>
       <c r="P34" s="4">
-        <v>0.84010284246914968</v>
+        <v>0.1800220376719606</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34" s="4">
-        <v>0.95381605637746714</v>
+        <v>0.9538160563774671</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34" s="4">
-        <v>0.79516916154143946</v>
+        <v>0.7951691615414395</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3573,31 +3521,31 @@
         <v>0</v>
       </c>
       <c r="X34" s="4">
-        <v>0.97616523472379912</v>
+        <v>0.9761652347237991</v>
       </c>
       <c r="Y34">
         <v>1</v>
       </c>
       <c r="Z34" s="4">
-        <v>0.99691480580474412</v>
+        <v>0.9969148058047441</v>
       </c>
       <c r="AA34">
         <v>0</v>
       </c>
       <c r="AB34" s="4">
-        <v>0.84231844583244475</v>
+        <v>0.8423184458324448</v>
       </c>
       <c r="AC34">
         <v>1</v>
       </c>
       <c r="AD34" s="4">
-        <v>0.99203975040297954</v>
+        <v>0.9920397504029795</v>
       </c>
       <c r="AE34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3608,7 +3556,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -3632,10 +3580,10 @@
         <v>1</v>
       </c>
       <c r="L35" s="1">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M35" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" s="1">
         <v>144</v>
@@ -3644,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q35" s="2">
         <v>1</v>
@@ -3656,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="T35" s="1">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="U35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V35" s="1">
         <v>176</v>
@@ -3680,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="AB35" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AC35" s="2">
         <v>0</v>
@@ -3692,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -3700,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3727,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="3">
         <v>0</v>
@@ -3736,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -3751,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="3">
         <v>0</v>
@@ -3772,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -3784,69 +3732,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="B37" s="4">
-        <v>0.99810105339584521</v>
+        <v>0.9981010533958452</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <v>2.0847692321331119E-2</v>
+        <v>0.01042384616066556</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>0.94509781949919636</v>
+        <v>0.9450978194991964</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" s="4">
-        <v>0.95092215574627148</v>
+        <v>0.9509221557462715</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" s="4">
-        <v>0.99877188995432764</v>
+        <v>0.9987718899543276</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>0.91226493473589143</v>
+        <v>0.9957038007178327</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37" s="4">
-        <v>0.91260390440682482</v>
+        <v>0.9126039044068248</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37" s="4">
-        <v>0.93352966493661993</v>
+        <v>0.9040497807807267</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37" s="4">
-        <v>0.99858333613548333</v>
+        <v>0.9985833361354833</v>
       </c>
       <c r="S37">
         <v>2</v>
       </c>
       <c r="T37" s="4">
-        <v>0.94177623906653563</v>
+        <v>0.8269254782047629</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37" s="4">
-        <v>0.97616523472379912</v>
+        <v>0.9761652347237991</v>
       </c>
       <c r="W37">
         <v>1</v>
@@ -3858,25 +3806,25 @@
         <v>0</v>
       </c>
       <c r="Z37" s="4">
-        <v>0.96922639489573825</v>
+        <v>0.9692263948957383</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
       <c r="AB37" s="4">
-        <v>0.69261299867463721</v>
+        <v>0.7155092961514847</v>
       </c>
       <c r="AC37">
         <v>1</v>
       </c>
       <c r="AD37" s="4">
-        <v>0.86077779984670777</v>
+        <v>0.8607777998467078</v>
       </c>
       <c r="AE37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -3887,7 +3835,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -3923,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>120</v>
@@ -3959,19 +3907,19 @@
         <v>0</v>
       </c>
       <c r="AB38" s="1">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AC38" s="2">
         <v>0</v>
       </c>
       <c r="AD38" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AE38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="B39" s="3">
         <v>0</v>
       </c>
@@ -3982,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -4015,10 +3963,10 @@
         <v>1</v>
       </c>
       <c r="P39" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="3">
         <v>0</v>
@@ -4051,87 +3999,87 @@
         <v>0</v>
       </c>
       <c r="AB39" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC39">
         <v>1</v>
       </c>
       <c r="AD39" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="B40" s="4">
-        <v>0.99659946841668234</v>
+        <v>0.9965994684166823</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <v>0.98768815183379166</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" s="4">
-        <v>0.87979440793152519</v>
+        <v>0.8797944079315252</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <v>0.99349030004545602</v>
+        <v>0.993490300045456</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" s="4">
-        <v>0.89149251825174347</v>
+        <v>0.8914925182517435</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40" s="4">
-        <v>0.61294126390320314</v>
+        <v>0.6129412639032031</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40" s="4">
-        <v>0.70187640411694907</v>
+        <v>0.7018764041169491</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40" s="4">
-        <v>0.98736544834976547</v>
+        <v>0.7757871379891015</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40" s="4">
-        <v>0.82309135130838162</v>
+        <v>0.8230913513083816</v>
       </c>
       <c r="S40">
         <v>1</v>
       </c>
       <c r="T40" s="4">
-        <v>0.89637739293693419</v>
+        <v>0.8963773929369342</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40" s="4">
-        <v>0.99691480580474412</v>
+        <v>0.9969148058047441</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40" s="4">
-        <v>0.96922639489573825</v>
+        <v>0.9692263948957383</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -4143,19 +4091,19 @@
         <v>0</v>
       </c>
       <c r="AB40" s="4">
-        <v>0.59512360015581123</v>
+        <v>0.5471297614335684</v>
       </c>
       <c r="AC40">
         <v>0</v>
       </c>
       <c r="AD40" s="4">
-        <v>0.56032429350848467</v>
+        <v>0.5318332277368668</v>
       </c>
       <c r="AE40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -4178,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I41" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J41" s="1">
         <v>216</v>
@@ -4196,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
@@ -4226,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Y41" s="2">
         <v>0</v>
@@ -4250,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="B42" s="3">
         <v>0</v>
       </c>
@@ -4273,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -4288,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -4318,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -4342,33 +4290,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="B43" s="4">
-        <v>0.99686417696958374</v>
+        <v>0.9968641769695837</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" s="4">
-        <v>0.99895685736060846</v>
+        <v>0.9989568573606085</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <v>0.99839193036799245</v>
+        <v>0.9983919303679925</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43" s="4">
-        <v>0.9412196693441407</v>
+        <v>0.8470977024097266</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <v>0.94634431416977083</v>
+        <v>0.9463443141697708</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4380,43 +4328,43 @@
         <v>0</v>
       </c>
       <c r="N43" s="4">
-        <v>9.3563074609637184E-2</v>
+        <v>0.04678153730481859</v>
       </c>
       <c r="O43">
         <v>0</v>
       </c>
       <c r="P43" s="4">
-        <v>0.75597085193513813</v>
+        <v>0.7559708519351381</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43" s="4">
-        <v>0.94577655370267133</v>
+        <v>0.9457765537026713</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43" s="4">
-        <v>0.99249823855112596</v>
+        <v>0.992498238551126</v>
       </c>
       <c r="U43">
         <v>1</v>
       </c>
       <c r="V43" s="4">
-        <v>0.84231844583244475</v>
+        <v>0.8423184458324448</v>
       </c>
       <c r="W43">
         <v>1</v>
       </c>
       <c r="X43" s="4">
-        <v>0.69261299867463721</v>
+        <v>0.7155092961514847</v>
       </c>
       <c r="Y43">
         <v>1</v>
       </c>
       <c r="Z43" s="4">
-        <v>0.55672852917801696</v>
+        <v>0.556728529178017</v>
       </c>
       <c r="AA43">
         <v>0</v>
@@ -4434,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -4442,7 +4390,7 @@
         <v>203</v>
       </c>
       <c r="C44" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -4457,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
@@ -4481,7 +4429,7 @@
         <v>3</v>
       </c>
       <c r="P44" s="1">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="2">
         <v>0</v>
@@ -4493,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="1">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
@@ -4511,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="1">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AA44" s="2">
         <v>0</v>
@@ -4529,12 +4477,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="B45" s="3">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -4549,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -4576,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>7</v>
@@ -4588,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -4603,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="Z45" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>1</v>
@@ -4621,9 +4569,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="B46" s="4">
-        <v>0.99605350825810868</v>
+        <v>0.9960535082581087</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -4635,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="4">
-        <v>0.83017332841198255</v>
+        <v>0.8301733284119825</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46" s="4">
-        <v>0.72265916095991145</v>
+        <v>0.7166867711999122</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4653,49 +4601,49 @@
         <v>0</v>
       </c>
       <c r="L46" s="4">
-        <v>0.92491367314937634</v>
+        <v>0.9249136731493763</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46" s="4">
-        <v>0.81892560972387152</v>
+        <v>0.8189256097238715</v>
       </c>
       <c r="O46">
         <v>0</v>
       </c>
       <c r="P46" s="4">
-        <v>0.8051622493965761</v>
+        <v>0</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46" s="4">
-        <v>0.79593190872438024</v>
+        <v>0.7959319087243802</v>
       </c>
       <c r="S46">
         <v>1</v>
       </c>
       <c r="T46" s="4">
-        <v>0.57431504180140358</v>
+        <v>0.05557887501303906</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46" s="4">
-        <v>0.99203975040297954</v>
+        <v>0.9920397504029795</v>
       </c>
       <c r="W46">
         <v>1</v>
       </c>
       <c r="X46" s="4">
-        <v>0.86077779984670777</v>
+        <v>0.8607777998467078</v>
       </c>
       <c r="Y46">
         <v>1</v>
       </c>
       <c r="Z46" s="4">
-        <v>0.59831238120397523</v>
+        <v>0.5318332277368668</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -4714,16 +4662,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2 B2 F2 H2 J2 L2 N2 P2 R2 T2 V2 X2 Z2 AB2 AD2 AD5 AB5 Z5 X5 V5 T5 R5 P5 N5 L5 J5 H5 F5 D5 B5 B8 D8 F8 H8 J8 L8 N8 P8 R8 T8 V8 X8 Z8 AB8 AD8 AD11 AB11 Z11 X11 V11 T11 R11 P11 N11 L11 J11 H11 F11 D11 B11 B14 D14 F14 H14 J14 L14 N14 P14 R14 T14 V14 X14 Z14 AB14 AD14 AD17 AB17 Z17 X17 V17 T17 R17 P17 N17 L17 J17 H17 F17 D17 B17 B20 D20 F20 H20 J20 L20 N20 P20 R20 T20 V20 X20 Z20 AB20 AD20 AD23 AB23 Z23 X23 V23 T23 R23 P23 N23 L23 J23 H23 F23 D23 B23 B26 D26 F26 H26 J26 L26 N26 P26 R26 T26 V26 X26 Z26 AB26 AD26 AD29 AB29 Z29 X29 V29 T29 R29 P29 N29 L29 J29 H29 F29 D29 B29 B32 D32 F32 H32 J32 L32 N32 P32 R32 T32 V32 X32 Z32 AB32 AD32 AD35 AB35 Z35 X35 V35 T35 R35 P35 N35 L35 J35 H35 F35 D35 B35 B38 D38 F38 H38 J38 L38 N38 P38 R38 T38 V38 X38 Z38 AB38 AD38 AD41 AB41 Z41 X41 V41 T41 R41 P41 N41 L41 J41 H41 F41 D41 B41 B44 D44 F44 H44 J44 L44 N44 P44 R44 T44 V44 X44 Z44 AB44 AD44">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="1">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I2" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>318</v>
@@ -526,7 +526,7 @@
         <v>120</v>
       </c>
       <c r="Q2" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R2" s="1">
         <v>277</v>
@@ -544,7 +544,7 @@
         <v>204</v>
       </c>
       <c r="W2" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1">
         <v>354</v>
@@ -556,7 +556,7 @@
         <v>207</v>
       </c>
       <c r="AA2" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB2" s="1">
         <v>205</v>
@@ -568,7 +568,7 @@
         <v>203</v>
       </c>
       <c r="AE2" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="3">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X3" s="3">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>0.989573573168974</v>
+        <v>0.9998816312228175</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -772,22 +772,22 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I5" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K5" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="2">
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AA5" s="2">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="X6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="3">
         <v>0</v>
@@ -956,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>0.01499129869789667</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>0.9304685896072591</v>
+        <v>0.9649303892223428</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>0.9314168128541092</v>
+        <v>0.9659137318487058</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1010,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="X7" s="4">
-        <v>0.01042384616066556</v>
+        <v>0.02084769232133112</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7" s="4">
-        <v>0</v>
+        <v>0.9876881518337917</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1173,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>0.01499129869789667</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4">
-        <v>0</v>
+        <v>0.8545760112445095</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1318,16 +1318,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C11" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>176</v>
@@ -1396,13 +1396,13 @@
         <v>1</v>
       </c>
       <c r="AB11" s="1">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AC11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD11" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AE11" s="2">
         <v>0</v>
@@ -1413,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -1502,13 +1502,13 @@
     </row>
     <row r="13" spans="1:31">
       <c r="B13" s="4">
-        <v>0.989573573168974</v>
+        <v>0.9998816312228175</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>0.9304685896072591</v>
+        <v>0.9649303892223428</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1580,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="AB13" s="4">
-        <v>0.8470977024097266</v>
+        <v>0.9412196693441407</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13" s="4">
-        <v>0.7166867711999122</v>
+        <v>0.7226591609599115</v>
       </c>
       <c r="AE13">
         <v>1</v>
@@ -1603,10 +1603,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>168</v>
@@ -1627,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1722,13 +1722,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="3">
         <v>6</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>0.9314168128541092</v>
+        <v>0.9659137318487058</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1811,13 +1811,13 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>0</v>
+        <v>0.7572947894641082</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>0.04866354336244245</v>
+        <v>0.5028566147452387</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="O17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1">
         <v>56</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="Y17" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="1">
         <v>56</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="3">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>0</v>
+        <v>0.7572947894641082</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <v>0.7227836414679323</v>
+        <v>0.9235568752090245</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="4">
-        <v>0</v>
+        <v>0.5984083504946276</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="4">
-        <v>0.9957038007178327</v>
+        <v>0.9122649347358914</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2179,16 +2179,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="M20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S20" s="2">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC20" s="2">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>6</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="AB21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>0.04866354336244245</v>
+        <v>0.5028566147452387</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>0.7227836414679323</v>
+        <v>0.9235568752090245</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="4">
-        <v>0.02576523173086134</v>
+        <v>0.03435364230781512</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="4">
-        <v>0.05847692163102324</v>
+        <v>0.04678153730481859</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>120</v>
       </c>
       <c r="C23" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -2494,19 +2494,19 @@
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="W23" s="2">
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Y23" s="2">
         <v>1</v>
       </c>
       <c r="Z23" s="1">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AA23" s="2">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AE23" s="2">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -2586,22 +2586,22 @@
         <v>1</v>
       </c>
       <c r="V24" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y24">
         <v>1</v>
       </c>
       <c r="Z24" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>0.8545760112445095</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="4">
-        <v>0.6071985380559839</v>
+        <v>0.5965459321251771</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -2678,19 +2678,19 @@
         <v>0</v>
       </c>
       <c r="V25" s="4">
-        <v>0.1800220376719606</v>
+        <v>0.8401028424691497</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25" s="4">
-        <v>0.9040497807807267</v>
+        <v>0.9335296649366199</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25" s="4">
-        <v>0.7581556121257128</v>
+        <v>0.9873654483497655</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="4">
-        <v>0</v>
+        <v>0.8051622493965761</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="U26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V26" s="1">
         <v>216</v>
@@ -2797,7 +2797,7 @@
         <v>6</v>
       </c>
       <c r="AD26" s="1">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AE26" s="2">
         <v>0</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="AD27" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="4">
-        <v>0.03435364230781512</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="4">
-        <v>0.8275397190800967</v>
+        <v>0.9424757911745546</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="4">
-        <v>0.7959319087243802</v>
+        <v>0.8210006302590064</v>
       </c>
       <c r="AE28">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         <v>5</v>
       </c>
       <c r="L29" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="S29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T29" s="1">
         <v>0</v>
@@ -3058,10 +3058,10 @@
         <v>3</v>
       </c>
       <c r="X29" s="1">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="Y29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z29" s="1">
         <v>108</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="AE29" s="2">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="3">
         <v>0</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="3">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="3">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>6</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>0</v>
+        <v>0.5984083504946276</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="4">
-        <v>0.8275397190800967</v>
+        <v>0.9424757911745546</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="4">
-        <v>0.8269254782047629</v>
+        <v>0.9417762390665356</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="AD31" s="4">
-        <v>0.05557887501303906</v>
+        <v>0.5743150418014036</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>204</v>
       </c>
       <c r="C32" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>56</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="4">
-        <v>0.1800220376719606</v>
+        <v>0.8401028424691497</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -3580,10 +3580,10 @@
         <v>1</v>
       </c>
       <c r="L35" s="1">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M35" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" s="1">
         <v>144</v>
@@ -3592,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="1">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q35" s="2">
         <v>1</v>
@@ -3604,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="T35" s="1">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="U35" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V35" s="1">
         <v>176</v>
@@ -3628,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="AB35" s="1">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AC35" s="2">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="3">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" s="3">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <v>0.01042384616066556</v>
+        <v>0.02084769232133112</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>0.9957038007178327</v>
+        <v>0.9122649347358914</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="4">
-        <v>0.9040497807807267</v>
+        <v>0.9335296649366199</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="T37" s="4">
-        <v>0.8269254782047629</v>
+        <v>0.9417762390665356</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="4">
-        <v>0.7155092961514847</v>
+        <v>0.6926129986746372</v>
       </c>
       <c r="AC37">
         <v>1</v>
@@ -3835,7 +3835,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -3871,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>120</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="AB38" s="1">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AC38" s="2">
         <v>0</v>
       </c>
       <c r="AD38" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE38" s="2">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>1</v>
       </c>
       <c r="P39" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="3">
         <v>0</v>
@@ -3999,13 +3999,13 @@
         <v>0</v>
       </c>
       <c r="AB39" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AC39">
         <v>1</v>
       </c>
       <c r="AD39" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE39">
         <v>1</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <v>0</v>
+        <v>0.9876881518337917</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="4">
-        <v>0.7757871379891015</v>
+        <v>0.9873654483497655</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -4091,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="AB40" s="4">
-        <v>0.5471297614335684</v>
+        <v>0.5951236001558112</v>
       </c>
       <c r="AC40">
         <v>0</v>
       </c>
       <c r="AD40" s="4">
-        <v>0.5318332277368668</v>
+        <v>0.5603242935084847</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -4126,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="I41" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J41" s="1">
         <v>216</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Y41" s="2">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="4">
-        <v>0.8470977024097266</v>
+        <v>0.9412196693441407</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="4">
-        <v>0.04678153730481859</v>
+        <v>0.09356307460963718</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="X43" s="4">
-        <v>0.7155092961514847</v>
+        <v>0.6926129986746372</v>
       </c>
       <c r="Y43">
         <v>1</v>
@@ -4390,7 +4390,7 @@
         <v>203</v>
       </c>
       <c r="C44" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>3</v>
       </c>
       <c r="P44" s="1">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q44" s="2">
         <v>0</v>
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="1">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="1">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="AA44" s="2">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="3">
         <v>7</v>
@@ -4536,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -4551,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA45">
         <v>1</v>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="4">
-        <v>0.7166867711999122</v>
+        <v>0.7226591609599115</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="4">
-        <v>0</v>
+        <v>0.8051622493965761</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="T46" s="4">
-        <v>0.05557887501303906</v>
+        <v>0.5743150418014036</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -4643,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="Z46" s="4">
-        <v>0.5318332277368668</v>
+        <v>0.5983123812039752</v>
       </c>
       <c r="AA46">
         <v>0</v>
